--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_1_site_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_1_site_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="421">
   <si>
     <t>type</t>
   </si>
@@ -99,58 +99,28 @@
     <t>county = ${c_county}</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>c_district_other</t>
-  </si>
-  <si>
-    <t>Please, enter the district name</t>
-  </si>
-  <si>
-    <t>${c_district} = 'Other'</t>
-  </si>
-  <si>
     <t>select_one community</t>
   </si>
   <si>
-    <t>c_town</t>
+    <t>c_site_name</t>
   </si>
   <si>
     <t>Select town or site</t>
   </si>
   <si>
-    <t>${c_district} != 'Other'</t>
-  </si>
-  <si>
     <t>district = ${c_district}</t>
   </si>
   <si>
-    <t>c_town_other</t>
-  </si>
-  <si>
-    <t>Please, enter the town or site</t>
-  </si>
-  <si>
-    <t>${c_town} = 'Other' or ${c_district} = 'Other'</t>
-  </si>
-  <si>
-    <t>c_cluster_name</t>
-  </si>
-  <si>
-    <t>Community name</t>
-  </si>
-  <si>
-    <t>c_cluster_id</t>
-  </si>
-  <si>
-    <t>Community ID</t>
-  </si>
-  <si>
-    <t>. &gt; 99 and . &lt; 1000</t>
-  </si>
-  <si>
-    <t>Must be between 100 and 999 included</t>
+    <t>select_one community_id</t>
+  </si>
+  <si>
+    <t>c_site_id</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>community = ${c_site_name}</t>
   </si>
   <si>
     <t>geopoint</t>
@@ -240,6 +210,9 @@
     <t>Sinoe</t>
   </si>
   <si>
+    <t>Fuamah</t>
+  </si>
+  <si>
     <t>Jorquelleh</t>
   </si>
   <si>
@@ -252,39 +225,75 @@
     <t>Panta</t>
   </si>
   <si>
+    <t>Salala</t>
+  </si>
+  <si>
     <t>Sanoyea</t>
   </si>
   <si>
     <t>Suakoko</t>
   </si>
   <si>
-    <t>Zota District</t>
+    <t>Zota</t>
+  </si>
+  <si>
+    <t>Belle</t>
   </si>
   <si>
     <t>Bokomu</t>
   </si>
   <si>
+    <t>Bopolu</t>
+  </si>
+  <si>
     <t>Gbarma</t>
   </si>
   <si>
-    <t>B Hai</t>
-  </si>
-  <si>
-    <t>Putu District</t>
-  </si>
-  <si>
-    <t>Barclayville District</t>
+    <t>Kungbor</t>
+  </si>
+  <si>
+    <t>B'Hai</t>
+  </si>
+  <si>
+    <t>Cavalla</t>
+  </si>
+  <si>
+    <t>Gbao</t>
+  </si>
+  <si>
+    <t>Konobo</t>
+  </si>
+  <si>
+    <t>Putu</t>
+  </si>
+  <si>
+    <t>Tchien</t>
+  </si>
+  <si>
+    <t>Barclayville</t>
   </si>
   <si>
     <t>Buah</t>
   </si>
   <si>
+    <t>Dorbor (Fenetoe)</t>
+  </si>
+  <si>
+    <t>Jroah</t>
+  </si>
+  <si>
+    <t>Foya</t>
+  </si>
+  <si>
     <t>Kolahun</t>
   </si>
   <si>
     <t>Salayea</t>
   </si>
   <si>
+    <t>Vahun</t>
+  </si>
+  <si>
     <t>Voinjama</t>
   </si>
   <si>
@@ -294,10 +303,10 @@
     <t>Barrobo Wojah</t>
   </si>
   <si>
-    <t>Karluway 1</t>
-  </si>
-  <si>
-    <t>Karluway 2</t>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Karluway</t>
   </si>
   <si>
     <t>Pleebo</t>
@@ -306,67 +315,109 @@
     <t>Careysburg</t>
   </si>
   <si>
-    <t>Commonwealth</t>
-  </si>
-  <si>
-    <t>St. Paul</t>
+    <t>Common Wealth</t>
+  </si>
+  <si>
+    <t>St Paul</t>
   </si>
   <si>
     <t>Todee</t>
   </si>
   <si>
-    <t>Gbehlay _ Geh</t>
+    <t>Gbehlay Geh</t>
   </si>
   <si>
     <t>Saclepea Mahn</t>
   </si>
   <si>
+    <t>Sanniquellie Mahn</t>
+  </si>
+  <si>
+    <t>Tappita</t>
+  </si>
+  <si>
     <t>Yarwin Mehnsonnah</t>
   </si>
   <si>
-    <t>Gbeapo</t>
-  </si>
-  <si>
-    <t>Tienpo District</t>
+    <t>Zoe Geh</t>
+  </si>
+  <si>
+    <t>Gbeapo (Nyenawliken)</t>
+  </si>
+  <si>
+    <t>Potupo</t>
+  </si>
+  <si>
+    <t>Sarbo</t>
+  </si>
+  <si>
+    <t>Tienpo</t>
+  </si>
+  <si>
+    <t>Webbo</t>
   </si>
   <si>
     <t>Bokon Jeade</t>
   </si>
   <si>
+    <t>Dugbe</t>
+  </si>
+  <si>
+    <t>Gblonee</t>
+  </si>
+  <si>
     <t>Greenville</t>
   </si>
   <si>
-    <t>Pyne District</t>
-  </si>
-  <si>
-    <t>Tarsue District</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Bamata</t>
-  </si>
-  <si>
-    <t>David-Ta</t>
-  </si>
-  <si>
-    <t>Gbanju</t>
-  </si>
-  <si>
-    <t>Camp #2</t>
+    <t>Jedaepo</t>
+  </si>
+  <si>
+    <t>Kpanyan</t>
+  </si>
+  <si>
+    <t>Pyneston</t>
+  </si>
+  <si>
+    <t>Tarjuwon</t>
+  </si>
+  <si>
+    <t>Tarsue</t>
+  </si>
+  <si>
+    <t>Dobli Island</t>
+  </si>
+  <si>
+    <t>Handii</t>
+  </si>
+  <si>
+    <t>Maizen</t>
+  </si>
+  <si>
+    <t>Behla</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Jorkpamue (Jorkpenmue)</t>
+  </si>
+  <si>
+    <t>Konni</t>
   </si>
   <si>
     <t>Gbarta</t>
   </si>
   <si>
-    <t>New Town</t>
+    <t>Kpelleh</t>
+  </si>
+  <si>
+    <t>Yalata</t>
   </si>
   <si>
     <t>Baila</t>
   </si>
   <si>
-    <t>Karpa-Ta</t>
+    <t>Kowai</t>
   </si>
   <si>
     <t>Lamco Camp</t>
@@ -378,67 +429,160 @@
     <t>Desseh</t>
   </si>
   <si>
-    <t>Yartanla</t>
-  </si>
-  <si>
-    <t>Matalata</t>
-  </si>
-  <si>
-    <t>Piata/Funutoli</t>
-  </si>
-  <si>
-    <t>Worlorsue</t>
-  </si>
-  <si>
-    <t>Bolorsa</t>
-  </si>
-  <si>
-    <t>Dumai</t>
-  </si>
-  <si>
-    <t>Kpatawee</t>
+    <t>Nyartanla</t>
+  </si>
+  <si>
+    <t>Totota</t>
+  </si>
+  <si>
+    <t>Matalata (Matildi Ta)</t>
+  </si>
+  <si>
+    <t>Piata (Pietta)</t>
+  </si>
+  <si>
+    <t>Worlo Sue</t>
+  </si>
+  <si>
+    <t>Belefanai (Bellefinal)</t>
+  </si>
+  <si>
+    <t>Gborsihi Ta (Gbolorsa)</t>
+  </si>
+  <si>
+    <t>Gwenimah</t>
+  </si>
+  <si>
+    <t>Moore Ta (Moore Town)</t>
+  </si>
+  <si>
+    <t>Wolo Ta</t>
   </si>
   <si>
     <t>Gbalatuah</t>
   </si>
   <si>
-    <t>One Day Village</t>
+    <t>Gbansue Sulonmah</t>
   </si>
   <si>
     <t>Waterside</t>
   </si>
   <si>
-    <t>Garpota</t>
-  </si>
-  <si>
-    <t>Jungle James</t>
-  </si>
-  <si>
-    <t>Maya/ Weayeama</t>
-  </si>
-  <si>
-    <t>Gbarquoita</t>
-  </si>
-  <si>
-    <t>Gengbai</t>
-  </si>
-  <si>
-    <t>Small Sawmill</t>
-  </si>
-  <si>
-    <t>Small Yeamah</t>
+    <t>Belleh Yallah</t>
+  </si>
+  <si>
+    <t>Kondesu (Kondansu)</t>
+  </si>
+  <si>
+    <t>Sasszu (Sasasu)</t>
+  </si>
+  <si>
+    <t>Banokoita</t>
+  </si>
+  <si>
+    <t>Dorkorta</t>
+  </si>
+  <si>
+    <t>Forkpata</t>
+  </si>
+  <si>
+    <t>Kollie (Kaya Kollie)</t>
+  </si>
+  <si>
+    <t>Mayamar</t>
+  </si>
+  <si>
+    <t>Bondi Mandingo (Central Bopolu)</t>
+  </si>
+  <si>
+    <t>Fallah Town</t>
+  </si>
+  <si>
+    <t>Gbambu (Guyanta 5Km)</t>
+  </si>
+  <si>
+    <t>Vomo</t>
+  </si>
+  <si>
+    <t>Kewelei</t>
+  </si>
+  <si>
+    <t>Vaye (Gbarma Town)</t>
   </si>
   <si>
     <t>Weasua</t>
   </si>
   <si>
-    <t>B Hai Jozon</t>
-  </si>
-  <si>
-    <t>Goayazon</t>
-  </si>
-  <si>
-    <t>Neko</t>
+    <t>Slc</t>
+  </si>
+  <si>
+    <t>Ulc</t>
+  </si>
+  <si>
+    <t>Zuie</t>
+  </si>
+  <si>
+    <t>B'Hai Tarway</t>
+  </si>
+  <si>
+    <t>Giah</t>
+  </si>
+  <si>
+    <t>Neka (Neko)</t>
+  </si>
+  <si>
+    <t>Toe</t>
+  </si>
+  <si>
+    <t>Jelluken</t>
+  </si>
+  <si>
+    <t>Sewein (Seowin)</t>
+  </si>
+  <si>
+    <t>Vieyee Town (Vleyee)</t>
+  </si>
+  <si>
+    <t>Zaway Town (Zeway)</t>
+  </si>
+  <si>
+    <t>Juluzon</t>
+  </si>
+  <si>
+    <t>Kweoh (Queboe)</t>
+  </si>
+  <si>
+    <t>Bangblor</t>
+  </si>
+  <si>
+    <t>Kao Town (Koul)</t>
+  </si>
+  <si>
+    <t>Nyongba</t>
+  </si>
+  <si>
+    <t>Zarr Town</t>
+  </si>
+  <si>
+    <t>Duou Town</t>
+  </si>
+  <si>
+    <t>Pennokon</t>
+  </si>
+  <si>
+    <t>Petroken</t>
+  </si>
+  <si>
+    <t>Gbarbo</t>
+  </si>
+  <si>
+    <t>Krah Town</t>
+  </si>
+  <si>
+    <t>Pellezon (Pellizon)</t>
+  </si>
+  <si>
+    <t>Refugee Camp (Ptp)</t>
   </si>
   <si>
     <t>Tarloken</t>
@@ -447,187 +591,169 @@
     <t>Tiembo</t>
   </si>
   <si>
-    <t>Yeoh</t>
-  </si>
-  <si>
-    <t>Pennokon</t>
-  </si>
-  <si>
-    <t>Petroken</t>
-  </si>
-  <si>
-    <t>Tiama Town</t>
-  </si>
-  <si>
-    <t>Dbuken</t>
-  </si>
-  <si>
-    <t>Deneken</t>
-  </si>
-  <si>
     <t>Filorken</t>
   </si>
   <si>
     <t>Gblanbroken</t>
   </si>
   <si>
-    <t>Jlakroken</t>
-  </si>
-  <si>
-    <t>Joploken</t>
+    <t>Henryville (Henriesville City)</t>
   </si>
   <si>
     <t>Kwejehen</t>
   </si>
   <si>
-    <t>Tarplatown</t>
-  </si>
-  <si>
-    <t>Iron Bridge</t>
-  </si>
-  <si>
-    <t>Sargba Town</t>
+    <t>Slenneken (Flenneken)</t>
+  </si>
+  <si>
+    <t>Jlatiken (Jlateken (Tarlu City))</t>
+  </si>
+  <si>
+    <t>Woloken 2</t>
   </si>
   <si>
     <t>Workiken</t>
   </si>
   <si>
-    <t>Bombia</t>
-  </si>
-  <si>
-    <t>Hembelaholahun</t>
-  </si>
-  <si>
-    <t>Beyan S Town</t>
-  </si>
-  <si>
-    <t>Gonlota</t>
-  </si>
-  <si>
-    <t>Pipaywou</t>
+    <t>Wropluken</t>
+  </si>
+  <si>
+    <t>Jarkako (Jarkakpo)</t>
+  </si>
+  <si>
+    <t>Nyankunpo</t>
+  </si>
+  <si>
+    <t>Sekroken</t>
+  </si>
+  <si>
+    <t>Felokree (Sasstown)</t>
+  </si>
+  <si>
+    <t>Jekwikpo</t>
+  </si>
+  <si>
+    <t>Fanda</t>
+  </si>
+  <si>
+    <t>Kpandu</t>
+  </si>
+  <si>
+    <t>Worquioma (Wokoima)</t>
+  </si>
+  <si>
+    <t>Balahun</t>
+  </si>
+  <si>
+    <t>Harlipo (Bombia)</t>
+  </si>
+  <si>
+    <t>Seketahun</t>
+  </si>
+  <si>
+    <t>Beyan'S Town</t>
+  </si>
+  <si>
+    <t>Ganglota</t>
+  </si>
+  <si>
+    <t>Pipaywou (Palawoe Village)</t>
+  </si>
+  <si>
+    <t>Hengoima (Hengima)</t>
+  </si>
+  <si>
+    <t>Nyamaleh (Nyeyama)</t>
+  </si>
+  <si>
+    <t>Yallahun</t>
   </si>
   <si>
     <t>Barkedu</t>
   </si>
   <si>
-    <t>Batebah</t>
-  </si>
-  <si>
-    <t>Budlor</t>
-  </si>
-  <si>
-    <t>Jallahmai Waterside</t>
-  </si>
-  <si>
-    <t>Kpademai</t>
-  </si>
-  <si>
-    <t>Lisco</t>
-  </si>
-  <si>
-    <t>Lpmc</t>
-  </si>
-  <si>
-    <t>Nyedemoilahun</t>
-  </si>
-  <si>
-    <t>Tuborgizzizu</t>
-  </si>
-  <si>
-    <t>Tusu Community</t>
-  </si>
-  <si>
-    <t>Vezala</t>
-  </si>
-  <si>
-    <t>Barziwen</t>
-  </si>
-  <si>
-    <t>Borkeza Town</t>
-  </si>
-  <si>
-    <t>Highway</t>
-  </si>
-  <si>
-    <t>Konia</t>
-  </si>
-  <si>
-    <t>Lawala</t>
-  </si>
-  <si>
-    <t>Luyeama</t>
-  </si>
-  <si>
-    <t>Nikebozie</t>
-  </si>
-  <si>
-    <t>Vetusu</t>
-  </si>
-  <si>
-    <t>Wakezu</t>
-  </si>
-  <si>
-    <t>Womai</t>
+    <t>Jallahmai Water Side</t>
+  </si>
+  <si>
+    <t>Konadou (Kunnadou)</t>
+  </si>
+  <si>
+    <t>L.P.M.C Camp</t>
+  </si>
+  <si>
+    <t>Lape'S Village</t>
+  </si>
+  <si>
+    <t>Tussus</t>
+  </si>
+  <si>
+    <t>Borkeza</t>
+  </si>
+  <si>
+    <t>Fords Village</t>
+  </si>
+  <si>
+    <t>Gruma'S Village (Lawala)</t>
+  </si>
+  <si>
+    <t>Vetuso (Vetesu)</t>
   </si>
   <si>
     <t>Zelemai</t>
   </si>
   <si>
-    <t>Zuworlor</t>
-  </si>
-  <si>
-    <t>Gblbotowayken</t>
-  </si>
-  <si>
-    <t>Glofaken</t>
-  </si>
-  <si>
-    <t>Taiken</t>
-  </si>
-  <si>
-    <t>Digbliken</t>
-  </si>
-  <si>
-    <t>Worteken</t>
+    <t>Zuwulor</t>
+  </si>
+  <si>
+    <t>Big Jay</t>
+  </si>
+  <si>
+    <t>Feloken</t>
+  </si>
+  <si>
+    <t>Juluken # 2</t>
+  </si>
+  <si>
+    <t>Martuken</t>
+  </si>
+  <si>
+    <t>Little Wlebo Fish Town</t>
+  </si>
+  <si>
+    <t>Digbliken (Dagbilaken)</t>
+  </si>
+  <si>
+    <t>Karloken</t>
+  </si>
+  <si>
+    <t>Wuluken</t>
   </si>
   <si>
     <t>Wutuken</t>
   </si>
   <si>
-    <t>Nyenewroken</t>
-  </si>
-  <si>
-    <t>Tarwoken</t>
-  </si>
-  <si>
-    <t>Wuluken</t>
-  </si>
-  <si>
-    <t>Gbawein</t>
-  </si>
-  <si>
-    <t>Gbolobo</t>
-  </si>
-  <si>
-    <t>Gbololu</t>
-  </si>
-  <si>
-    <t>Kunokudi</t>
-  </si>
-  <si>
-    <t>Rock Town</t>
-  </si>
-  <si>
-    <t>Tendeken</t>
-  </si>
-  <si>
-    <t>James Daniels</t>
-  </si>
-  <si>
-    <t>Saul Town</t>
-  </si>
-  <si>
-    <t>Wayduo Town</t>
+    <t>Yorken</t>
+  </si>
+  <si>
+    <t>Cavalla Kunokudi (Kumkudi)</t>
+  </si>
+  <si>
+    <t>Libsuco</t>
+  </si>
+  <si>
+    <t>Nemeken</t>
+  </si>
+  <si>
+    <t>Crawford (Craw Food) Town</t>
+  </si>
+  <si>
+    <t>Diamond Creek</t>
+  </si>
+  <si>
+    <t>Mount Coffee</t>
+  </si>
+  <si>
+    <t>Bassa</t>
   </si>
   <si>
     <t>Cassava Hill</t>
@@ -636,133 +762,193 @@
     <t>Fofee Town</t>
   </si>
   <si>
-    <t>Teah Town (Commonwealth)</t>
-  </si>
-  <si>
-    <t>Jawaya Town</t>
-  </si>
-  <si>
-    <t>Jones Town</t>
-  </si>
-  <si>
-    <t>Kamara Town</t>
-  </si>
-  <si>
-    <t>Lunnah Town</t>
-  </si>
-  <si>
-    <t>Mcgill Town</t>
-  </si>
-  <si>
-    <t>Zunnah Town</t>
-  </si>
-  <si>
-    <t>Boyouwa Town</t>
-  </si>
-  <si>
-    <t>Killing Ward Mission</t>
+    <t>Kamara</t>
+  </si>
+  <si>
+    <t>Zuanah</t>
+  </si>
+  <si>
+    <t>Godjay Hammar Camp (Godgbeh)</t>
   </si>
   <si>
     <t>Koon Town</t>
   </si>
   <si>
-    <t>Majo Town</t>
-  </si>
-  <si>
-    <t>Mary Farm</t>
-  </si>
-  <si>
-    <t>Meniky Town</t>
-  </si>
-  <si>
-    <t>Beoyoolar</t>
+    <t>Meni Gray (Meniky Town)</t>
   </si>
   <si>
     <t>Boaplay</t>
   </si>
   <si>
-    <t>Kentorgborglay</t>
-  </si>
-  <si>
-    <t>Luogartuo</t>
-  </si>
-  <si>
-    <t>Peela</t>
+    <t>Gborplay (Twan River District)</t>
   </si>
   <si>
     <t>Zorgowee</t>
   </si>
   <si>
-    <t>Guah</t>
-  </si>
-  <si>
-    <t>Kpallah</t>
-  </si>
-  <si>
-    <t>Yarsonnah</t>
-  </si>
-  <si>
-    <t>Boyee</t>
-  </si>
-  <si>
-    <t>Dennima</t>
-  </si>
-  <si>
-    <t>Kpendepea</t>
+    <t>Cocopa Camp 3</t>
+  </si>
+  <si>
+    <t>Cocopa Camp 4</t>
+  </si>
+  <si>
+    <t>Cocopa Camp 5</t>
+  </si>
+  <si>
+    <t>Gampa (Gbarpa)</t>
+  </si>
+  <si>
+    <t>Leagbala</t>
+  </si>
+  <si>
+    <t>Yekepa Camp</t>
+  </si>
+  <si>
+    <t>Fahnlay</t>
+  </si>
+  <si>
+    <t>Gbornewin</t>
+  </si>
+  <si>
+    <t>Zeewron</t>
+  </si>
+  <si>
+    <t>Bein Glahn</t>
+  </si>
+  <si>
+    <t>Boition</t>
+  </si>
+  <si>
+    <t>Zoisome</t>
+  </si>
+  <si>
+    <t>Buehlay 1</t>
+  </si>
+  <si>
+    <t>Nyor Learplay</t>
+  </si>
+  <si>
+    <t>Younhlay</t>
+  </si>
+  <si>
+    <t>Joquieken</t>
+  </si>
+  <si>
+    <t>Killeken (Kileaken)</t>
   </si>
   <si>
     <t>Pronoken</t>
   </si>
   <si>
-    <t>Sweaken</t>
-  </si>
-  <si>
-    <t>Tartuken</t>
+    <t>Geelay Solo</t>
+  </si>
+  <si>
+    <t>Wragoken</t>
   </si>
   <si>
     <t>Gbeh Town</t>
   </si>
   <si>
-    <t>Matuaken</t>
-  </si>
-  <si>
-    <t>Nyonken</t>
+    <t>Lepard Town (Lepoard)</t>
+  </si>
+  <si>
+    <t>Salla</t>
+  </si>
+  <si>
+    <t>U-Bor (Youbor)</t>
+  </si>
+  <si>
+    <t>Nyonken (Nyouken)</t>
   </si>
   <si>
     <t>Sherriken</t>
   </si>
   <si>
-    <t>Wrewroken</t>
-  </si>
-  <si>
-    <t>Yalatoken</t>
+    <t>Woloken</t>
+  </si>
+  <si>
+    <t>Toubo Sweaken</t>
+  </si>
+  <si>
+    <t>Watuaken</t>
+  </si>
+  <si>
+    <t>Wlegboken</t>
+  </si>
+  <si>
+    <t>Konwonkpo</t>
+  </si>
+  <si>
+    <t>Wenamein</t>
+  </si>
+  <si>
+    <t>Karquekpo</t>
+  </si>
+  <si>
+    <t>Kwitatuzon Junction</t>
+  </si>
+  <si>
+    <t>Menwehkpo (Menwiekpo)</t>
+  </si>
+  <si>
+    <t>Nana Kru</t>
+  </si>
+  <si>
+    <t>Blay Town</t>
+  </si>
+  <si>
+    <t>Kay Town</t>
+  </si>
+  <si>
+    <t>Togbaville</t>
+  </si>
+  <si>
+    <t>Congo Town</t>
+  </si>
+  <si>
+    <t>Seebeh (Seabeh)</t>
+  </si>
+  <si>
+    <t>Teah Town</t>
   </si>
   <si>
     <t>Diyankpo</t>
   </si>
   <si>
-    <t>Konwonkpo</t>
-  </si>
-  <si>
-    <t>Wrelewein</t>
-  </si>
-  <si>
-    <t>Congo Town</t>
-  </si>
-  <si>
-    <t>Seebeh</t>
-  </si>
-  <si>
-    <t>Teah Town (Greenville)</t>
-  </si>
-  <si>
-    <t>Blyee</t>
-  </si>
-  <si>
-    <t>Sanquine</t>
-  </si>
-  <si>
-    <t>Tataville</t>
+    <t>Gbarteken</t>
+  </si>
+  <si>
+    <t>Wralakpo</t>
+  </si>
+  <si>
+    <t>Brown And Nyamway</t>
+  </si>
+  <si>
+    <t>Flahn</t>
+  </si>
+  <si>
+    <t>Kabada</t>
+  </si>
+  <si>
+    <t>Popoh Mission</t>
+  </si>
+  <si>
+    <t>Saywoo Town</t>
+  </si>
+  <si>
+    <t>Judu Town</t>
+  </si>
+  <si>
+    <t>Kumah</t>
+  </si>
+  <si>
+    <t>Eni (Plandialebo)</t>
+  </si>
+  <si>
+    <t>Jalay</t>
+  </si>
+  <si>
+    <t>Zanwonjah</t>
   </si>
   <si>
     <t>Bafor Camp</t>
@@ -771,7 +957,307 @@
     <t>Bellyful</t>
   </si>
   <si>
-    <t>Konmane Town</t>
+    <t>Konmane Town (Koonmanah Town)</t>
+  </si>
+  <si>
+    <t>community_id</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>094</t>
   </si>
   <si>
     <t>form_title</t>
@@ -786,10 +1272,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Dec 2021) IAS - 1. Site Form</t>
-  </si>
-  <si>
-    <t>lr_oncho_ias_1_site_202112</t>
+    <t>(Dec 2021) IAS - 1. Site Form V2</t>
+  </si>
+  <si>
+    <t>lr_oncho_ias_1_site_202112_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -800,10 +1286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -830,9 +1316,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,6 +1392,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -854,30 +1407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,7 +1422,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,28 +1445,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,39 +1459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,7 +1482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,7 +1500,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,97 +1620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,13 +1632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,37 +1650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,26 +1721,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,11 +1745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,11 +1771,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,166 +1818,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1518,6 +2004,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,14 +2324,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1987,41 +2474,39 @@
       <c r="B5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:13">
+      <c r="M5" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="12"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
         <v>19</v>
@@ -2029,127 +2514,54 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:10">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="3" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:13">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="C8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="H11" s="12"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2162,12 +2574,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A207" sqref="A207:A241"/>
+      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2181,46 +2593,46 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="11"/>
@@ -2234,733 +2646,747 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
         <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
         <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
         <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
         <v>59</v>
-      </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
         <v>108</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>108</v>
       </c>
-      <c r="D60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
         <v>109</v>
@@ -2968,13 +3394,13 @@
       <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
@@ -2982,13 +3408,13 @@
       <c r="C63" t="s">
         <v>110</v>
       </c>
-      <c r="E63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
         <v>111</v>
@@ -2996,13 +3422,13 @@
       <c r="C64" t="s">
         <v>111</v>
       </c>
-      <c r="E64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
         <v>112</v>
@@ -3010,13 +3436,13 @@
       <c r="C65" t="s">
         <v>112</v>
       </c>
-      <c r="E65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
         <v>113</v>
@@ -3024,13 +3450,13 @@
       <c r="C66" t="s">
         <v>113</v>
       </c>
-      <c r="E66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
         <v>114</v>
@@ -3038,13 +3464,13 @@
       <c r="C67" t="s">
         <v>114</v>
       </c>
-      <c r="E67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
         <v>115</v>
@@ -3052,13 +3478,13 @@
       <c r="C68" t="s">
         <v>115</v>
       </c>
-      <c r="E68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
         <v>116</v>
@@ -3066,13 +3492,13 @@
       <c r="C69" t="s">
         <v>116</v>
       </c>
-      <c r="E69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
         <v>117</v>
@@ -3080,13 +3506,13 @@
       <c r="C70" t="s">
         <v>117</v>
       </c>
-      <c r="E70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
         <v>118</v>
@@ -3094,13 +3520,13 @@
       <c r="C71" t="s">
         <v>118</v>
       </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
         <v>119</v>
@@ -3108,13 +3534,13 @@
       <c r="C72" t="s">
         <v>119</v>
       </c>
-      <c r="E72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
         <v>120</v>
@@ -3122,13 +3548,13 @@
       <c r="C73" t="s">
         <v>120</v>
       </c>
-      <c r="E73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
         <v>121</v>
@@ -3136,181 +3562,167 @@
       <c r="C74" t="s">
         <v>121</v>
       </c>
-      <c r="E74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" t="s">
-        <v>78</v>
+      <c r="D74" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
         <v>133</v>
@@ -3319,12 +3731,12 @@
         <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
         <v>134</v>
@@ -3333,12 +3745,12 @@
         <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
         <v>135</v>
@@ -3347,12 +3759,12 @@
         <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
         <v>136</v>
@@ -3361,12 +3773,12 @@
         <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
         <v>137</v>
@@ -3375,12 +3787,12 @@
         <v>137</v>
       </c>
       <c r="E91" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
@@ -3389,12 +3801,12 @@
         <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
@@ -3403,12 +3815,12 @@
         <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
         <v>140</v>
@@ -3417,12 +3829,12 @@
         <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
         <v>141</v>
@@ -3431,12 +3843,12 @@
         <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
         <v>142</v>
@@ -3445,12 +3857,12 @@
         <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
         <v>143</v>
@@ -3459,12 +3871,12 @@
         <v>143</v>
       </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
         <v>144</v>
@@ -3473,12 +3885,12 @@
         <v>144</v>
       </c>
       <c r="E98" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
         <v>145</v>
@@ -3487,12 +3899,12 @@
         <v>145</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
         <v>146</v>
@@ -3501,12 +3913,12 @@
         <v>146</v>
       </c>
       <c r="E100" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
         <v>147</v>
@@ -3515,12 +3927,12 @@
         <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B102" t="s">
         <v>148</v>
@@ -3529,12 +3941,12 @@
         <v>148</v>
       </c>
       <c r="E102" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B103" t="s">
         <v>149</v>
@@ -3543,12 +3955,12 @@
         <v>149</v>
       </c>
       <c r="E103" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B104" t="s">
         <v>150</v>
@@ -3557,12 +3969,12 @@
         <v>150</v>
       </c>
       <c r="E104" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B105" t="s">
         <v>151</v>
@@ -3571,12 +3983,12 @@
         <v>151</v>
       </c>
       <c r="E105" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
         <v>152</v>
@@ -3585,12 +3997,12 @@
         <v>152</v>
       </c>
       <c r="E106" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
         <v>153</v>
@@ -3599,12 +4011,12 @@
         <v>153</v>
       </c>
       <c r="E107" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
         <v>154</v>
@@ -3613,12 +4025,12 @@
         <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
         <v>155</v>
@@ -3627,12 +4039,12 @@
         <v>155</v>
       </c>
       <c r="E109" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
         <v>156</v>
@@ -3641,12 +4053,12 @@
         <v>156</v>
       </c>
       <c r="E110" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
         <v>157</v>
@@ -3655,12 +4067,12 @@
         <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B112" t="s">
         <v>158</v>
@@ -3669,12 +4081,12 @@
         <v>158</v>
       </c>
       <c r="E112" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B113" t="s">
         <v>159</v>
@@ -3683,1799 +4095,4879 @@
         <v>159</v>
       </c>
       <c r="E113" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="E114" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E115" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E116" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E117" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E118" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E119" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E120" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C122" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E122" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C123" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E123" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E124" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E125" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E126" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C127" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E127" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C128" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E128" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="E129" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E130" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E131" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E132" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E133" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C134" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E134" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E135" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C136" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E136" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C137" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E137" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C138" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E138" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E139" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E140" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E141" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E142" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E143" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E144" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E145" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C146" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E146" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E147" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E148" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C149" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E149" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C150" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E150" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C151" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E151" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B152" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C152" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E152" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C153" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E153" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C154" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E154" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B155" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E155" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B156" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C156" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E156" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C157" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E157" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B158" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E158" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B159" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E159" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B160" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E160" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B161" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E161" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B162" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C162" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E162" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B163" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E163" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B164" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C164" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E164" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C165" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E165" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C166" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E166" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B167" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C167" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E167" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B168" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E168" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B169" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E169" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C170" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C171" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E171" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C172" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E172" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C173" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E173" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E174" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B175" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B176" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C176" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E176" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B177" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="C177" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="E177" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B178" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C178" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E178" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B179" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C179" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E179" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C180" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E180" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E181" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B182" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C182" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E182" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B183" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C183" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E183" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B184" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C184" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B185" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E185" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B186" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C186" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E186" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B187" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C187" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E187" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B188" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C188" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E188" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E189" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B190" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C190" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E190" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E191" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B192" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C192" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E192" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B193" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C193" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E193" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B194" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C194" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E194" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B195" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C195" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E195" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B196" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C196" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E196" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B197" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C197" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E197" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B198" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C198" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E198" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B199" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C199" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E199" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B200" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C200" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E200" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B201" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C201" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E201" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E202" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C203" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E203" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B204" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C204" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E204" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B205" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C205" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E205" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B206" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C206" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E206" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B207" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C207" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E207" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B208" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="C208" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="E208" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B209" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="C209" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="E209" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B210" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="C210" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="E210" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B211" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C211" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="E211" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B212" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="C212" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="E212" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B213" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="C213" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="E213" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B214" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="C214" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="E214" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B215" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="C215" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="E215" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B216" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="C216" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E216" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B217" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="C217" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="E217" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B218" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="C218" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="E218" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B219" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="C219" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="E219" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B220" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="C220" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="E220" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B221" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="C221" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="E221" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="C222" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="E222" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B223" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="C223" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="E223" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B224" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="C224" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="E224" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B225" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="C225" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="E225" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B226" t="s">
+        <v>271</v>
+      </c>
+      <c r="C226" t="s">
+        <v>271</v>
+      </c>
+      <c r="E226" t="s">
         <v>108</v>
-      </c>
-      <c r="C226" t="s">
-        <v>108</v>
-      </c>
-      <c r="E226" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B227" t="s">
+        <v>272</v>
+      </c>
+      <c r="C227" t="s">
+        <v>272</v>
+      </c>
+      <c r="E227" t="s">
         <v>108</v>
-      </c>
-      <c r="C227" t="s">
-        <v>108</v>
-      </c>
-      <c r="E227" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B228" t="s">
+        <v>273</v>
+      </c>
+      <c r="C228" t="s">
+        <v>273</v>
+      </c>
+      <c r="E228" t="s">
         <v>108</v>
-      </c>
-      <c r="C228" t="s">
-        <v>108</v>
-      </c>
-      <c r="E228" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B229" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="C229" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="E229" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B230" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="C230" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="E230" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B231" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="C231" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="E231" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="C232" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="E232" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B233" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="C233" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="E233" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B234" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="C234" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="E234" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B235" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="C235" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="E235" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B236" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="C236" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="E236" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B237" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="C237" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="E237" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B238" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="C238" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="E238" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B239" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="C239" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="E239" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B240" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="C240" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="E240" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B241" t="s">
+        <v>286</v>
+      </c>
+      <c r="C241" t="s">
+        <v>286</v>
+      </c>
+      <c r="E241" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>50</v>
+      </c>
+      <c r="B242" t="s">
+        <v>287</v>
+      </c>
+      <c r="C242" t="s">
+        <v>287</v>
+      </c>
+      <c r="E242" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>50</v>
+      </c>
+      <c r="B243" t="s">
+        <v>288</v>
+      </c>
+      <c r="C243" t="s">
+        <v>288</v>
+      </c>
+      <c r="E243" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>50</v>
+      </c>
+      <c r="B244" t="s">
+        <v>289</v>
+      </c>
+      <c r="C244" t="s">
+        <v>289</v>
+      </c>
+      <c r="E244" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>50</v>
+      </c>
+      <c r="B245" t="s">
+        <v>290</v>
+      </c>
+      <c r="C245" t="s">
+        <v>290</v>
+      </c>
+      <c r="E245" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>50</v>
+      </c>
+      <c r="B246" t="s">
+        <v>291</v>
+      </c>
+      <c r="C246" t="s">
+        <v>291</v>
+      </c>
+      <c r="E246" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>50</v>
+      </c>
+      <c r="B247" t="s">
+        <v>292</v>
+      </c>
+      <c r="C247" t="s">
+        <v>292</v>
+      </c>
+      <c r="E247" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248" t="s">
+        <v>293</v>
+      </c>
+      <c r="C248" t="s">
+        <v>293</v>
+      </c>
+      <c r="E248" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>50</v>
+      </c>
+      <c r="B249" t="s">
+        <v>294</v>
+      </c>
+      <c r="C249" t="s">
+        <v>294</v>
+      </c>
+      <c r="E249" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>50</v>
+      </c>
+      <c r="B250" t="s">
+        <v>295</v>
+      </c>
+      <c r="C250" t="s">
+        <v>295</v>
+      </c>
+      <c r="E250" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>50</v>
+      </c>
+      <c r="B251" t="s">
+        <v>296</v>
+      </c>
+      <c r="C251" t="s">
+        <v>296</v>
+      </c>
+      <c r="E251" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>50</v>
+      </c>
+      <c r="B252" t="s">
+        <v>297</v>
+      </c>
+      <c r="C252" t="s">
+        <v>297</v>
+      </c>
+      <c r="E252" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>50</v>
+      </c>
+      <c r="B253" t="s">
+        <v>298</v>
+      </c>
+      <c r="C253" t="s">
+        <v>298</v>
+      </c>
+      <c r="E253" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>50</v>
+      </c>
+      <c r="B254" t="s">
+        <v>299</v>
+      </c>
+      <c r="C254" t="s">
+        <v>299</v>
+      </c>
+      <c r="E254" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>50</v>
+      </c>
+      <c r="B255" t="s">
+        <v>300</v>
+      </c>
+      <c r="C255" t="s">
+        <v>300</v>
+      </c>
+      <c r="E255" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>50</v>
+      </c>
+      <c r="B256" t="s">
+        <v>301</v>
+      </c>
+      <c r="C256" t="s">
+        <v>301</v>
+      </c>
+      <c r="E256" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>50</v>
+      </c>
+      <c r="B257" t="s">
+        <v>302</v>
+      </c>
+      <c r="C257" t="s">
+        <v>302</v>
+      </c>
+      <c r="E257" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>50</v>
+      </c>
+      <c r="B258" t="s">
+        <v>303</v>
+      </c>
+      <c r="C258" t="s">
+        <v>303</v>
+      </c>
+      <c r="E258" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>50</v>
+      </c>
+      <c r="B259" t="s">
+        <v>304</v>
+      </c>
+      <c r="C259" t="s">
+        <v>304</v>
+      </c>
+      <c r="E259" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>50</v>
+      </c>
+      <c r="B260" t="s">
+        <v>305</v>
+      </c>
+      <c r="C260" t="s">
+        <v>305</v>
+      </c>
+      <c r="E260" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>50</v>
+      </c>
+      <c r="B261" t="s">
+        <v>306</v>
+      </c>
+      <c r="C261" t="s">
+        <v>306</v>
+      </c>
+      <c r="E261" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>50</v>
+      </c>
+      <c r="B262" t="s">
+        <v>307</v>
+      </c>
+      <c r="C262" t="s">
+        <v>307</v>
+      </c>
+      <c r="E262" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>50</v>
+      </c>
+      <c r="B263" t="s">
+        <v>308</v>
+      </c>
+      <c r="C263" t="s">
+        <v>308</v>
+      </c>
+      <c r="E263" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>50</v>
+      </c>
+      <c r="B264" t="s">
+        <v>309</v>
+      </c>
+      <c r="C264" t="s">
+        <v>309</v>
+      </c>
+      <c r="E264" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>50</v>
+      </c>
+      <c r="B265" t="s">
+        <v>310</v>
+      </c>
+      <c r="C265" t="s">
+        <v>310</v>
+      </c>
+      <c r="E265" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B266" t="s">
+        <v>311</v>
+      </c>
+      <c r="C266" t="s">
+        <v>311</v>
+      </c>
+      <c r="E266" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>50</v>
+      </c>
+      <c r="B267" t="s">
+        <v>312</v>
+      </c>
+      <c r="C267" t="s">
+        <v>312</v>
+      </c>
+      <c r="E267" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>50</v>
+      </c>
+      <c r="B268" t="s">
+        <v>313</v>
+      </c>
+      <c r="C268" t="s">
+        <v>313</v>
+      </c>
+      <c r="E268" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>314</v>
+      </c>
+      <c r="B270" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="F270" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>314</v>
+      </c>
+      <c r="B271" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C271" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F271" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>314</v>
+      </c>
+      <c r="B272" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F272" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>314</v>
+      </c>
+      <c r="B273" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F273" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>314</v>
+      </c>
+      <c r="B274" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C274" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F274" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>314</v>
+      </c>
+      <c r="B275" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F275" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>314</v>
+      </c>
+      <c r="B276" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C276" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F276" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>314</v>
+      </c>
+      <c r="B277" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F277" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>314</v>
+      </c>
+      <c r="B278" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F278" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>314</v>
+      </c>
+      <c r="B279" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F279" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>314</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F280" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>314</v>
+      </c>
+      <c r="B281" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C281" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F281" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>314</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F282" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>314</v>
+      </c>
+      <c r="B283" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C283" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="F283" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>314</v>
+      </c>
+      <c r="B284" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F284" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>314</v>
+      </c>
+      <c r="B285" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C285" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F285" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>314</v>
+      </c>
+      <c r="B286" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F286" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>314</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F287" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>314</v>
+      </c>
+      <c r="B288" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F288" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>314</v>
+      </c>
+      <c r="B289" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C289" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F289" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>314</v>
+      </c>
+      <c r="B290" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F290" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>314</v>
+      </c>
+      <c r="B291" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F291" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>314</v>
+      </c>
+      <c r="B292" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F292" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>314</v>
+      </c>
+      <c r="B293" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F293" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>314</v>
+      </c>
+      <c r="B294" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F294" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>314</v>
+      </c>
+      <c r="B295" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F295" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>314</v>
+      </c>
+      <c r="B296" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F296" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>314</v>
+      </c>
+      <c r="B297" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F297" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>314</v>
+      </c>
+      <c r="B298" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C298" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F298" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>314</v>
+      </c>
+      <c r="B299" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="F299" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>314</v>
+      </c>
+      <c r="B300" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F300" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>314</v>
+      </c>
+      <c r="B301" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C301" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F301" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>314</v>
+      </c>
+      <c r="B302" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C302" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F302" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>314</v>
+      </c>
+      <c r="B303" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C303" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F303" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>314</v>
+      </c>
+      <c r="B304" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F304" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>314</v>
+      </c>
+      <c r="B305" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C305" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F305" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>314</v>
+      </c>
+      <c r="B306" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F306" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>314</v>
+      </c>
+      <c r="B307" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F307" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F308" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C309" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="F309" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>314</v>
+      </c>
+      <c r="B310" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C310" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="F310" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C311" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="F311" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F312" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C313" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F313" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C314" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F314" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C315" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F315" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>314</v>
+      </c>
+      <c r="B316" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C316" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F316" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>314</v>
+      </c>
+      <c r="B317" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C317" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F317" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>314</v>
+      </c>
+      <c r="B318" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C318" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F318" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>314</v>
+      </c>
+      <c r="B319" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C319" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F319" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>314</v>
+      </c>
+      <c r="B320" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C320" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="F320" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>314</v>
+      </c>
+      <c r="B321" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C321" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F321" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>314</v>
+      </c>
+      <c r="B322" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C322" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F322" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>314</v>
+      </c>
+      <c r="B323" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C323" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="F323" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>314</v>
+      </c>
+      <c r="B324" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C324" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="F324" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>314</v>
+      </c>
+      <c r="B325" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C325" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="F325" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="s">
+        <v>314</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F326" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="s">
+        <v>314</v>
+      </c>
+      <c r="B327" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C327" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F327" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="s">
+        <v>314</v>
+      </c>
+      <c r="B328" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F328" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>314</v>
+      </c>
+      <c r="B329" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C329" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F329" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="s">
+        <v>314</v>
+      </c>
+      <c r="B330" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C330" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F330" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="s">
+        <v>314</v>
+      </c>
+      <c r="B331" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C331" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F331" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="s">
+        <v>314</v>
+      </c>
+      <c r="B332" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C332" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F332" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="s">
+        <v>314</v>
+      </c>
+      <c r="B333" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C333" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F333" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="s">
+        <v>314</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C334" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F334" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>314</v>
+      </c>
+      <c r="B335" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C335" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F335" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="s">
+        <v>314</v>
+      </c>
+      <c r="B336" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C336" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F336" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="s">
+        <v>314</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C337" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F337" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="s">
+        <v>314</v>
+      </c>
+      <c r="B338" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C338" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F338" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="s">
+        <v>314</v>
+      </c>
+      <c r="B339" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C339" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F339" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="s">
+        <v>314</v>
+      </c>
+      <c r="B340" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C340" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F340" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" t="s">
+        <v>314</v>
+      </c>
+      <c r="B341" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C341" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F341" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="s">
+        <v>314</v>
+      </c>
+      <c r="B342" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C342" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="F342" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
+        <v>314</v>
+      </c>
+      <c r="B343" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C343" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F343" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>314</v>
+      </c>
+      <c r="B344" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C344" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F344" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="s">
+        <v>314</v>
+      </c>
+      <c r="B345" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C345" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F345" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="s">
+        <v>314</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C346" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="F346" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="s">
+        <v>314</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C347" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F347" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="s">
+        <v>314</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C348" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F348" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="s">
+        <v>314</v>
+      </c>
+      <c r="B349" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C349" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F349" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="s">
+        <v>314</v>
+      </c>
+      <c r="B350" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C350" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F350" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="s">
+        <v>314</v>
+      </c>
+      <c r="B351" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C351" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="F351" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="s">
+        <v>314</v>
+      </c>
+      <c r="B352" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C352" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F352" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>314</v>
+      </c>
+      <c r="B353">
+        <v>105</v>
+      </c>
+      <c r="C353">
+        <v>105</v>
+      </c>
+      <c r="F353" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>314</v>
+      </c>
+      <c r="B354">
+        <v>104</v>
+      </c>
+      <c r="C354">
+        <v>104</v>
+      </c>
+      <c r="F354" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>314</v>
+      </c>
+      <c r="B355">
+        <v>103</v>
+      </c>
+      <c r="C355">
+        <v>103</v>
+      </c>
+      <c r="F355" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>314</v>
+      </c>
+      <c r="B356" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C356" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F356" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="s">
+        <v>314</v>
+      </c>
+      <c r="B357" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C357" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F357" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>314</v>
+      </c>
+      <c r="B358" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C358" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F358" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="s">
+        <v>314</v>
+      </c>
+      <c r="B359">
+        <v>100</v>
+      </c>
+      <c r="C359">
+        <v>100</v>
+      </c>
+      <c r="F359" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>314</v>
+      </c>
+      <c r="B360">
+        <v>102</v>
+      </c>
+      <c r="C360">
+        <v>102</v>
+      </c>
+      <c r="F360" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
+        <v>314</v>
+      </c>
+      <c r="B361">
+        <v>101</v>
+      </c>
+      <c r="C361">
+        <v>101</v>
+      </c>
+      <c r="F361" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>314</v>
+      </c>
+      <c r="B362">
+        <v>107</v>
+      </c>
+      <c r="C362">
+        <v>107</v>
+      </c>
+      <c r="F362" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>314</v>
+      </c>
+      <c r="B363">
+        <v>106</v>
+      </c>
+      <c r="C363">
+        <v>106</v>
+      </c>
+      <c r="F363" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>314</v>
+      </c>
+      <c r="B364">
         <v>108</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C364">
         <v>108</v>
       </c>
-      <c r="E241" t="s">
-        <v>107</v>
+      <c r="F364" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>314</v>
+      </c>
+      <c r="B365" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C365" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F365" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>314</v>
+      </c>
+      <c r="B366" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C366" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="F366" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>314</v>
+      </c>
+      <c r="B367" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C367" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="F367" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>314</v>
+      </c>
+      <c r="B368" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C368" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F368" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>314</v>
+      </c>
+      <c r="B369" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C369" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F369" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>314</v>
+      </c>
+      <c r="B370" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C370" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F370" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>314</v>
+      </c>
+      <c r="B371" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C371" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F371" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>314</v>
+      </c>
+      <c r="B372" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C372" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F372" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="s">
+        <v>314</v>
+      </c>
+      <c r="B373" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C373" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F373" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="s">
+        <v>314</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C374" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F374" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" t="s">
+        <v>314</v>
+      </c>
+      <c r="B375" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C375" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F375" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="s">
+        <v>314</v>
+      </c>
+      <c r="B376" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C376" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="F376" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
+        <v>314</v>
+      </c>
+      <c r="B377" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C377" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="F377" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="s">
+        <v>314</v>
+      </c>
+      <c r="B378">
+        <v>111</v>
+      </c>
+      <c r="C378">
+        <v>111</v>
+      </c>
+      <c r="F378" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>314</v>
+      </c>
+      <c r="B379">
+        <v>110</v>
+      </c>
+      <c r="C379">
+        <v>110</v>
+      </c>
+      <c r="F379" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="s">
+        <v>314</v>
+      </c>
+      <c r="B380">
+        <v>109</v>
+      </c>
+      <c r="C380">
+        <v>109</v>
+      </c>
+      <c r="F380" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="s">
+        <v>314</v>
+      </c>
+      <c r="B381">
+        <v>112</v>
+      </c>
+      <c r="C381">
+        <v>112</v>
+      </c>
+      <c r="F381" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="s">
+        <v>314</v>
+      </c>
+      <c r="B382">
+        <v>116</v>
+      </c>
+      <c r="C382">
+        <v>116</v>
+      </c>
+      <c r="F382" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="s">
+        <v>314</v>
+      </c>
+      <c r="B383">
+        <v>120</v>
+      </c>
+      <c r="C383">
+        <v>120</v>
+      </c>
+      <c r="F383" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="s">
+        <v>314</v>
+      </c>
+      <c r="B384">
+        <v>118</v>
+      </c>
+      <c r="C384">
+        <v>118</v>
+      </c>
+      <c r="F384" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="s">
+        <v>314</v>
+      </c>
+      <c r="B385">
+        <v>119</v>
+      </c>
+      <c r="C385">
+        <v>119</v>
+      </c>
+      <c r="F385" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="s">
+        <v>314</v>
+      </c>
+      <c r="B386">
+        <v>117</v>
+      </c>
+      <c r="C386">
+        <v>117</v>
+      </c>
+      <c r="F386" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="s">
+        <v>314</v>
+      </c>
+      <c r="B387">
+        <v>121</v>
+      </c>
+      <c r="C387">
+        <v>121</v>
+      </c>
+      <c r="F387" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="s">
+        <v>314</v>
+      </c>
+      <c r="B388">
+        <v>113</v>
+      </c>
+      <c r="C388">
+        <v>113</v>
+      </c>
+      <c r="F388" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="s">
+        <v>314</v>
+      </c>
+      <c r="B389">
+        <v>115</v>
+      </c>
+      <c r="C389">
+        <v>115</v>
+      </c>
+      <c r="F389" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="s">
+        <v>314</v>
+      </c>
+      <c r="B390">
+        <v>114</v>
+      </c>
+      <c r="C390">
+        <v>114</v>
+      </c>
+      <c r="F390" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" t="s">
+        <v>314</v>
+      </c>
+      <c r="B391">
+        <v>128</v>
+      </c>
+      <c r="C391">
+        <v>128</v>
+      </c>
+      <c r="F391" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>314</v>
+      </c>
+      <c r="B392">
+        <v>129</v>
+      </c>
+      <c r="C392">
+        <v>129</v>
+      </c>
+      <c r="F392" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="s">
+        <v>314</v>
+      </c>
+      <c r="B393">
+        <v>127</v>
+      </c>
+      <c r="C393">
+        <v>127</v>
+      </c>
+      <c r="F393" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="s">
+        <v>314</v>
+      </c>
+      <c r="B394">
+        <v>132</v>
+      </c>
+      <c r="C394">
+        <v>132</v>
+      </c>
+      <c r="F394" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="s">
+        <v>314</v>
+      </c>
+      <c r="B395">
+        <v>130</v>
+      </c>
+      <c r="C395">
+        <v>130</v>
+      </c>
+      <c r="F395" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="s">
+        <v>314</v>
+      </c>
+      <c r="B396">
+        <v>131</v>
+      </c>
+      <c r="C396">
+        <v>131</v>
+      </c>
+      <c r="F396" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="s">
+        <v>314</v>
+      </c>
+      <c r="B397">
+        <v>122</v>
+      </c>
+      <c r="C397">
+        <v>122</v>
+      </c>
+      <c r="F397" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>314</v>
+      </c>
+      <c r="B398">
+        <v>123</v>
+      </c>
+      <c r="C398">
+        <v>123</v>
+      </c>
+      <c r="F398" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>314</v>
+      </c>
+      <c r="B399">
+        <v>125</v>
+      </c>
+      <c r="C399">
+        <v>125</v>
+      </c>
+      <c r="F399" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>314</v>
+      </c>
+      <c r="B400">
+        <v>126</v>
+      </c>
+      <c r="C400">
+        <v>126</v>
+      </c>
+      <c r="F400" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>314</v>
+      </c>
+      <c r="B401">
+        <v>124</v>
+      </c>
+      <c r="C401">
+        <v>124</v>
+      </c>
+      <c r="F401" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>314</v>
+      </c>
+      <c r="B402">
+        <v>135</v>
+      </c>
+      <c r="C402">
+        <v>135</v>
+      </c>
+      <c r="F402" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>314</v>
+      </c>
+      <c r="B403">
+        <v>134</v>
+      </c>
+      <c r="C403">
+        <v>134</v>
+      </c>
+      <c r="F403" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>314</v>
+      </c>
+      <c r="B404">
+        <v>133</v>
+      </c>
+      <c r="C404">
+        <v>133</v>
+      </c>
+      <c r="F404" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>314</v>
+      </c>
+      <c r="B405">
+        <v>148</v>
+      </c>
+      <c r="C405">
+        <v>148</v>
+      </c>
+      <c r="F405" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="s">
+        <v>314</v>
+      </c>
+      <c r="B406">
+        <v>149</v>
+      </c>
+      <c r="C406">
+        <v>149</v>
+      </c>
+      <c r="F406" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>314</v>
+      </c>
+      <c r="B407">
+        <v>150</v>
+      </c>
+      <c r="C407">
+        <v>150</v>
+      </c>
+      <c r="F407" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>314</v>
+      </c>
+      <c r="B408">
+        <v>142</v>
+      </c>
+      <c r="C408">
+        <v>142</v>
+      </c>
+      <c r="F408" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>314</v>
+      </c>
+      <c r="B409">
+        <v>143</v>
+      </c>
+      <c r="C409">
+        <v>143</v>
+      </c>
+      <c r="F409" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>314</v>
+      </c>
+      <c r="B410">
+        <v>144</v>
+      </c>
+      <c r="C410">
+        <v>144</v>
+      </c>
+      <c r="F410" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>314</v>
+      </c>
+      <c r="B411">
+        <v>147</v>
+      </c>
+      <c r="C411">
+        <v>147</v>
+      </c>
+      <c r="F411" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>314</v>
+      </c>
+      <c r="B412">
+        <v>145</v>
+      </c>
+      <c r="C412">
+        <v>145</v>
+      </c>
+      <c r="F412" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>314</v>
+      </c>
+      <c r="B413">
+        <v>146</v>
+      </c>
+      <c r="C413">
+        <v>146</v>
+      </c>
+      <c r="F413" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>314</v>
+      </c>
+      <c r="B414">
+        <v>140</v>
+      </c>
+      <c r="C414">
+        <v>140</v>
+      </c>
+      <c r="F414" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="s">
+        <v>314</v>
+      </c>
+      <c r="B415">
+        <v>139</v>
+      </c>
+      <c r="C415">
+        <v>139</v>
+      </c>
+      <c r="F415" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="s">
+        <v>314</v>
+      </c>
+      <c r="B416">
+        <v>141</v>
+      </c>
+      <c r="C416">
+        <v>141</v>
+      </c>
+      <c r="F416" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>314</v>
+      </c>
+      <c r="B417">
+        <v>137</v>
+      </c>
+      <c r="C417">
+        <v>137</v>
+      </c>
+      <c r="F417" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="s">
+        <v>314</v>
+      </c>
+      <c r="B418">
+        <v>136</v>
+      </c>
+      <c r="C418">
+        <v>136</v>
+      </c>
+      <c r="F418" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
+        <v>314</v>
+      </c>
+      <c r="B419">
+        <v>138</v>
+      </c>
+      <c r="C419">
+        <v>138</v>
+      </c>
+      <c r="F419" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>314</v>
+      </c>
+      <c r="B420">
+        <v>154</v>
+      </c>
+      <c r="C420">
+        <v>154</v>
+      </c>
+      <c r="F420" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>314</v>
+      </c>
+      <c r="B421">
+        <v>155</v>
+      </c>
+      <c r="C421">
+        <v>155</v>
+      </c>
+      <c r="F421" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>314</v>
+      </c>
+      <c r="B422">
+        <v>153</v>
+      </c>
+      <c r="C422">
+        <v>153</v>
+      </c>
+      <c r="F422" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>314</v>
+      </c>
+      <c r="B423">
+        <v>151</v>
+      </c>
+      <c r="C423">
+        <v>151</v>
+      </c>
+      <c r="F423" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>314</v>
+      </c>
+      <c r="B424">
+        <v>152</v>
+      </c>
+      <c r="C424">
+        <v>152</v>
+      </c>
+      <c r="F424" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>314</v>
+      </c>
+      <c r="B425">
+        <v>162</v>
+      </c>
+      <c r="C425">
+        <v>162</v>
+      </c>
+      <c r="F425" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>314</v>
+      </c>
+      <c r="B426">
+        <v>161</v>
+      </c>
+      <c r="C426">
+        <v>161</v>
+      </c>
+      <c r="F426" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>314</v>
+      </c>
+      <c r="B427">
+        <v>160</v>
+      </c>
+      <c r="C427">
+        <v>160</v>
+      </c>
+      <c r="F427" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>314</v>
+      </c>
+      <c r="B428">
+        <v>159</v>
+      </c>
+      <c r="C428">
+        <v>159</v>
+      </c>
+      <c r="F428" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>314</v>
+      </c>
+      <c r="B429">
+        <v>157</v>
+      </c>
+      <c r="C429">
+        <v>157</v>
+      </c>
+      <c r="F429" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>314</v>
+      </c>
+      <c r="B430">
+        <v>158</v>
+      </c>
+      <c r="C430">
+        <v>158</v>
+      </c>
+      <c r="F430" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>314</v>
+      </c>
+      <c r="B431">
+        <v>156</v>
+      </c>
+      <c r="C431">
+        <v>156</v>
+      </c>
+      <c r="F431" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>314</v>
+      </c>
+      <c r="B432">
+        <v>163</v>
+      </c>
+      <c r="C432">
+        <v>163</v>
+      </c>
+      <c r="F432" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>314</v>
+      </c>
+      <c r="B433">
+        <v>165</v>
+      </c>
+      <c r="C433">
+        <v>165</v>
+      </c>
+      <c r="F433" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>314</v>
+      </c>
+      <c r="B434">
+        <v>164</v>
+      </c>
+      <c r="C434">
+        <v>164</v>
+      </c>
+      <c r="F434" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>314</v>
+      </c>
+      <c r="B435">
+        <v>189</v>
+      </c>
+      <c r="C435">
+        <v>189</v>
+      </c>
+      <c r="F435" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>314</v>
+      </c>
+      <c r="B436">
+        <v>190</v>
+      </c>
+      <c r="C436">
+        <v>190</v>
+      </c>
+      <c r="F436" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>314</v>
+      </c>
+      <c r="B437">
+        <v>188</v>
+      </c>
+      <c r="C437">
+        <v>188</v>
+      </c>
+      <c r="F437" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>314</v>
+      </c>
+      <c r="B438">
+        <v>187</v>
+      </c>
+      <c r="C438">
+        <v>187</v>
+      </c>
+      <c r="F438" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>314</v>
+      </c>
+      <c r="B439">
+        <v>185</v>
+      </c>
+      <c r="C439">
+        <v>185</v>
+      </c>
+      <c r="F439" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>314</v>
+      </c>
+      <c r="B440">
+        <v>186</v>
+      </c>
+      <c r="C440">
+        <v>186</v>
+      </c>
+      <c r="F440" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>314</v>
+      </c>
+      <c r="B441">
+        <v>182</v>
+      </c>
+      <c r="C441">
+        <v>182</v>
+      </c>
+      <c r="F441" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>314</v>
+      </c>
+      <c r="B442">
+        <v>184</v>
+      </c>
+      <c r="C442">
+        <v>184</v>
+      </c>
+      <c r="F442" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>314</v>
+      </c>
+      <c r="B443">
+        <v>183</v>
+      </c>
+      <c r="C443">
+        <v>183</v>
+      </c>
+      <c r="F443" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>314</v>
+      </c>
+      <c r="B444">
+        <v>179</v>
+      </c>
+      <c r="C444">
+        <v>179</v>
+      </c>
+      <c r="F444" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>314</v>
+      </c>
+      <c r="B445">
+        <v>181</v>
+      </c>
+      <c r="C445">
+        <v>181</v>
+      </c>
+      <c r="F445" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>314</v>
+      </c>
+      <c r="B446">
+        <v>180</v>
+      </c>
+      <c r="C446">
+        <v>180</v>
+      </c>
+      <c r="F446" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>314</v>
+      </c>
+      <c r="B447">
+        <v>178</v>
+      </c>
+      <c r="C447">
+        <v>178</v>
+      </c>
+      <c r="F447" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>314</v>
+      </c>
+      <c r="B448">
+        <v>176</v>
+      </c>
+      <c r="C448">
+        <v>176</v>
+      </c>
+      <c r="F448" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>314</v>
+      </c>
+      <c r="B449">
+        <v>177</v>
+      </c>
+      <c r="C449">
+        <v>177</v>
+      </c>
+      <c r="F449" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>314</v>
+      </c>
+      <c r="B450">
+        <v>168</v>
+      </c>
+      <c r="C450">
+        <v>168</v>
+      </c>
+      <c r="F450" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>314</v>
+      </c>
+      <c r="B451">
+        <v>170</v>
+      </c>
+      <c r="C451">
+        <v>170</v>
+      </c>
+      <c r="F451" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>314</v>
+      </c>
+      <c r="B452">
+        <v>166</v>
+      </c>
+      <c r="C452">
+        <v>166</v>
+      </c>
+      <c r="F452" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>314</v>
+      </c>
+      <c r="B453">
+        <v>167</v>
+      </c>
+      <c r="C453">
+        <v>167</v>
+      </c>
+      <c r="F453" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>314</v>
+      </c>
+      <c r="B454">
+        <v>169</v>
+      </c>
+      <c r="C454">
+        <v>169</v>
+      </c>
+      <c r="F454" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>314</v>
+      </c>
+      <c r="B455">
+        <v>175</v>
+      </c>
+      <c r="C455">
+        <v>175</v>
+      </c>
+      <c r="F455" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>314</v>
+      </c>
+      <c r="B456">
+        <v>174</v>
+      </c>
+      <c r="C456">
+        <v>174</v>
+      </c>
+      <c r="F456" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>314</v>
+      </c>
+      <c r="B457">
+        <v>191</v>
+      </c>
+      <c r="C457">
+        <v>191</v>
+      </c>
+      <c r="F457" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>314</v>
+      </c>
+      <c r="B458">
+        <v>193</v>
+      </c>
+      <c r="C458">
+        <v>193</v>
+      </c>
+      <c r="F458" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>314</v>
+      </c>
+      <c r="B459">
+        <v>192</v>
+      </c>
+      <c r="C459">
+        <v>192</v>
+      </c>
+      <c r="F459" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>314</v>
+      </c>
+      <c r="B460">
+        <v>172</v>
+      </c>
+      <c r="C460">
+        <v>172</v>
+      </c>
+      <c r="F460" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>314</v>
+      </c>
+      <c r="B461">
+        <v>171</v>
+      </c>
+      <c r="C461">
+        <v>171</v>
+      </c>
+      <c r="F461" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>314</v>
+      </c>
+      <c r="B462">
+        <v>173</v>
+      </c>
+      <c r="C462">
+        <v>173</v>
+      </c>
+      <c r="F462" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5490,7 +8982,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -5502,27 +8994,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>253</v>
+        <v>415</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_1_site_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_1_site_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="420">
   <si>
     <t>type</t>
   </si>
@@ -159,9 +159,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -1272,7 +1269,7 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Dec 2021) IAS - 1. Site Form V2</t>
+    <t>(July 2022) IAS - 1. Site Form V2</t>
   </si>
   <si>
     <t>lr_oncho_ias_1_site_202112_v2</t>
@@ -1286,10 +1283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1316,6 +1313,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1325,22 +1337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1348,14 +1345,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,15 +1365,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1398,9 +1397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,16 +1411,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,19 +1426,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1461,7 +1458,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,7 +1479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,19 +1497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,31 +1527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,13 +1545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,7 +1563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,7 +1587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,43 +1635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,19 +1647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,6 +1718,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1760,6 +1772,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1767,21 +1794,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1803,166 +1815,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2327,7 +2324,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2481,7 +2478,6 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
         <v>19</v>
@@ -2504,7 +2500,6 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="12"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2577,9 +2572,9 @@
   <dimension ref="A1:F462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2599,40 +2594,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="11"/>
@@ -2646,4793 +2641,4793 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E136" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C137" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E152" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E159" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E162" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E163" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E164" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C166" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E166" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B167" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C167" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E168" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E169" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E170" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E173" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B174" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C174" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E174" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E176" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B177" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C177" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E177" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E179" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B180" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C180" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B181" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C181" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E181" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E182" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E183" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B184" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C184" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E184" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E185" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C186" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B187" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C187" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B188" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C188" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E189" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E190" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B192" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C192" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E192" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E193" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B194" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C194" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E194" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B195" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C195" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B197" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C197" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E197" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B198" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C198" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E198" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C199" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E199" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B200" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C200" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E200" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B201" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C201" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E201" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B202" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C202" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E202" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B203" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C203" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E203" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B204" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C204" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E204" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B205" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C205" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B206" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C206" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E206" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B207" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C207" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B208" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C208" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E208" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B209" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C209" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E209" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B210" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C210" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E210" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B211" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C211" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E211" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B212" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C212" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E212" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B213" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C213" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E213" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B214" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C214" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E214" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B215" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C215" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C216" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E216" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B217" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C217" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E217" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B218" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C218" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E218" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B219" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C219" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E219" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B220" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C220" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B221" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C221" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E221" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B222" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C222" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E222" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B223" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C223" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E223" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B224" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C224" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E224" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B225" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E225" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B226" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C226" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E226" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C227" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E227" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B228" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C228" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E228" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E229" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B230" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C230" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E230" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E231" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B232" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E232" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B233" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C233" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B234" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C234" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E234" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B235" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C235" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E235" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B236" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C236" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E236" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B237" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C237" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E237" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B238" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C238" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E238" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B239" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C239" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E239" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B240" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C240" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E240" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B241" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C241" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B242" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C242" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E242" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C243" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B244" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C244" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E244" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B245" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C245" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C246" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E246" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C247" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E247" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C248" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E248" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B249" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C249" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E249" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B250" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C250" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E250" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E251" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B252" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E252" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C253" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E253" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B254" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C254" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E254" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B255" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E255" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B256" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C256" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E256" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B257" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E257" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B258" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C258" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E258" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B259" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C259" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E259" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E260" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B261" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C261" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E261" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B262" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C262" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E262" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B263" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C263" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B264" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C264" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E264" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B265" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C265" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E265" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B266" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C266" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E266" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B267" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C267" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E267" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E268" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
+        <v>313</v>
+      </c>
+      <c r="B270" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="B270" s="17" t="s">
-        <v>315</v>
-      </c>
       <c r="C270" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F270" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F271" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F272" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F273" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F274" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F275" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F276" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F277" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F278" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F279" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C280" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F280" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F281" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F282" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F283" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F284" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F285" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F286" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F287" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F288" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B289" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F289" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F290" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F291" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C292" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F292" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B294" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C294" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F294" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F295" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C296" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F296" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C297" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F297" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C298" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F298" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C299" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F299" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C300" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F300" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F301" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F302" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C303" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F303" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F304" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C305" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F305" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F306" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F307" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C308" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F308" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F309" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C310" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F310" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C311" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F311" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C312" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F312" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C313" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F313" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B314" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F314" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F315" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F316" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C317" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F317" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C318" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F318" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F319" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C320" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F320" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C321" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F321" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C322" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F322" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F323" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F324" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F325" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F326" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C327" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F327" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F328" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C329" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F329" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C330" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F330" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C331" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F331" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C332" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F332" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C333" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F333" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C334" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F334" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C335" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F335" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C336" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F336" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C337" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F337" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C338" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F338" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F339" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F340" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C341" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F341" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B342" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C342" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F342" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F343" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C344" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F344" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B345" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F345" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C346" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F346" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C347" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F347" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C348" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F348" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B349" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C349" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F349" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B350" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C350" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F350" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B351" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C351" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F351" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C352" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F352" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B353">
         <v>105</v>
@@ -7441,12 +7436,12 @@
         <v>105</v>
       </c>
       <c r="F353" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B354">
         <v>104</v>
@@ -7455,12 +7450,12 @@
         <v>104</v>
       </c>
       <c r="F354" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B355">
         <v>103</v>
@@ -7469,54 +7464,54 @@
         <v>103</v>
       </c>
       <c r="F355" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C356" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F356" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C357" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F357" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C358" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F358" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B359">
         <v>100</v>
@@ -7525,12 +7520,12 @@
         <v>100</v>
       </c>
       <c r="F359" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B360">
         <v>102</v>
@@ -7539,12 +7534,12 @@
         <v>102</v>
       </c>
       <c r="F360" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B361">
         <v>101</v>
@@ -7553,12 +7548,12 @@
         <v>101</v>
       </c>
       <c r="F361" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B362">
         <v>107</v>
@@ -7567,12 +7562,12 @@
         <v>107</v>
       </c>
       <c r="F362" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B363">
         <v>106</v>
@@ -7581,12 +7576,12 @@
         <v>106</v>
       </c>
       <c r="F363" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B364">
         <v>108</v>
@@ -7595,194 +7590,194 @@
         <v>108</v>
       </c>
       <c r="F364" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F365" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C366" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F366" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F367" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F368" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C369" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F369" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B370" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C370" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F370" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C371" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F371" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C372" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F372" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B373" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C373" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F373" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C374" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F374" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C375" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F375" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C376" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F376" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C377" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F377" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B378">
         <v>111</v>
@@ -7791,12 +7786,12 @@
         <v>111</v>
       </c>
       <c r="F378" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B379">
         <v>110</v>
@@ -7805,12 +7800,12 @@
         <v>110</v>
       </c>
       <c r="F379" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B380">
         <v>109</v>
@@ -7819,12 +7814,12 @@
         <v>109</v>
       </c>
       <c r="F380" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B381">
         <v>112</v>
@@ -7833,12 +7828,12 @@
         <v>112</v>
       </c>
       <c r="F381" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B382">
         <v>116</v>
@@ -7847,12 +7842,12 @@
         <v>116</v>
       </c>
       <c r="F382" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B383">
         <v>120</v>
@@ -7861,12 +7856,12 @@
         <v>120</v>
       </c>
       <c r="F383" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B384">
         <v>118</v>
@@ -7875,12 +7870,12 @@
         <v>118</v>
       </c>
       <c r="F384" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B385">
         <v>119</v>
@@ -7889,12 +7884,12 @@
         <v>119</v>
       </c>
       <c r="F385" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B386">
         <v>117</v>
@@ -7903,12 +7898,12 @@
         <v>117</v>
       </c>
       <c r="F386" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B387">
         <v>121</v>
@@ -7917,12 +7912,12 @@
         <v>121</v>
       </c>
       <c r="F387" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B388">
         <v>113</v>
@@ -7931,12 +7926,12 @@
         <v>113</v>
       </c>
       <c r="F388" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B389">
         <v>115</v>
@@ -7945,12 +7940,12 @@
         <v>115</v>
       </c>
       <c r="F389" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B390">
         <v>114</v>
@@ -7959,12 +7954,12 @@
         <v>114</v>
       </c>
       <c r="F390" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B391">
         <v>128</v>
@@ -7973,12 +7968,12 @@
         <v>128</v>
       </c>
       <c r="F391" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B392">
         <v>129</v>
@@ -7987,12 +7982,12 @@
         <v>129</v>
       </c>
       <c r="F392" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B393">
         <v>127</v>
@@ -8001,12 +7996,12 @@
         <v>127</v>
       </c>
       <c r="F393" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B394">
         <v>132</v>
@@ -8015,12 +8010,12 @@
         <v>132</v>
       </c>
       <c r="F394" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B395">
         <v>130</v>
@@ -8029,12 +8024,12 @@
         <v>130</v>
       </c>
       <c r="F395" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B396">
         <v>131</v>
@@ -8043,12 +8038,12 @@
         <v>131</v>
       </c>
       <c r="F396" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B397">
         <v>122</v>
@@ -8057,12 +8052,12 @@
         <v>122</v>
       </c>
       <c r="F397" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B398">
         <v>123</v>
@@ -8071,12 +8066,12 @@
         <v>123</v>
       </c>
       <c r="F398" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B399">
         <v>125</v>
@@ -8085,12 +8080,12 @@
         <v>125</v>
       </c>
       <c r="F399" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B400">
         <v>126</v>
@@ -8099,12 +8094,12 @@
         <v>126</v>
       </c>
       <c r="F400" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B401">
         <v>124</v>
@@ -8113,12 +8108,12 @@
         <v>124</v>
       </c>
       <c r="F401" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B402">
         <v>135</v>
@@ -8127,12 +8122,12 @@
         <v>135</v>
       </c>
       <c r="F402" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B403">
         <v>134</v>
@@ -8141,12 +8136,12 @@
         <v>134</v>
       </c>
       <c r="F403" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B404">
         <v>133</v>
@@ -8155,12 +8150,12 @@
         <v>133</v>
       </c>
       <c r="F404" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B405">
         <v>148</v>
@@ -8169,12 +8164,12 @@
         <v>148</v>
       </c>
       <c r="F405" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B406">
         <v>149</v>
@@ -8183,12 +8178,12 @@
         <v>149</v>
       </c>
       <c r="F406" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B407">
         <v>150</v>
@@ -8197,12 +8192,12 @@
         <v>150</v>
       </c>
       <c r="F407" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B408">
         <v>142</v>
@@ -8211,12 +8206,12 @@
         <v>142</v>
       </c>
       <c r="F408" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B409">
         <v>143</v>
@@ -8225,12 +8220,12 @@
         <v>143</v>
       </c>
       <c r="F409" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B410">
         <v>144</v>
@@ -8239,12 +8234,12 @@
         <v>144</v>
       </c>
       <c r="F410" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B411">
         <v>147</v>
@@ -8253,12 +8248,12 @@
         <v>147</v>
       </c>
       <c r="F411" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B412">
         <v>145</v>
@@ -8267,12 +8262,12 @@
         <v>145</v>
       </c>
       <c r="F412" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B413">
         <v>146</v>
@@ -8281,12 +8276,12 @@
         <v>146</v>
       </c>
       <c r="F413" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B414">
         <v>140</v>
@@ -8295,12 +8290,12 @@
         <v>140</v>
       </c>
       <c r="F414" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B415">
         <v>139</v>
@@ -8309,12 +8304,12 @@
         <v>139</v>
       </c>
       <c r="F415" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B416">
         <v>141</v>
@@ -8323,12 +8318,12 @@
         <v>141</v>
       </c>
       <c r="F416" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B417">
         <v>137</v>
@@ -8337,12 +8332,12 @@
         <v>137</v>
       </c>
       <c r="F417" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B418">
         <v>136</v>
@@ -8351,12 +8346,12 @@
         <v>136</v>
       </c>
       <c r="F418" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B419">
         <v>138</v>
@@ -8365,12 +8360,12 @@
         <v>138</v>
       </c>
       <c r="F419" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B420">
         <v>154</v>
@@ -8379,12 +8374,12 @@
         <v>154</v>
       </c>
       <c r="F420" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B421">
         <v>155</v>
@@ -8393,12 +8388,12 @@
         <v>155</v>
       </c>
       <c r="F421" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B422">
         <v>153</v>
@@ -8407,12 +8402,12 @@
         <v>153</v>
       </c>
       <c r="F422" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B423">
         <v>151</v>
@@ -8421,12 +8416,12 @@
         <v>151</v>
       </c>
       <c r="F423" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B424">
         <v>152</v>
@@ -8435,12 +8430,12 @@
         <v>152</v>
       </c>
       <c r="F424" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B425">
         <v>162</v>
@@ -8449,12 +8444,12 @@
         <v>162</v>
       </c>
       <c r="F425" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B426">
         <v>161</v>
@@ -8463,12 +8458,12 @@
         <v>161</v>
       </c>
       <c r="F426" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B427">
         <v>160</v>
@@ -8477,12 +8472,12 @@
         <v>160</v>
       </c>
       <c r="F427" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B428">
         <v>159</v>
@@ -8491,12 +8486,12 @@
         <v>159</v>
       </c>
       <c r="F428" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B429">
         <v>157</v>
@@ -8505,12 +8500,12 @@
         <v>157</v>
       </c>
       <c r="F429" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B430">
         <v>158</v>
@@ -8519,12 +8514,12 @@
         <v>158</v>
       </c>
       <c r="F430" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B431">
         <v>156</v>
@@ -8533,12 +8528,12 @@
         <v>156</v>
       </c>
       <c r="F431" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B432">
         <v>163</v>
@@ -8547,12 +8542,12 @@
         <v>163</v>
       </c>
       <c r="F432" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B433">
         <v>165</v>
@@ -8561,12 +8556,12 @@
         <v>165</v>
       </c>
       <c r="F433" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B434">
         <v>164</v>
@@ -8575,12 +8570,12 @@
         <v>164</v>
       </c>
       <c r="F434" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B435">
         <v>189</v>
@@ -8589,12 +8584,12 @@
         <v>189</v>
       </c>
       <c r="F435" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B436">
         <v>190</v>
@@ -8603,12 +8598,12 @@
         <v>190</v>
       </c>
       <c r="F436" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B437">
         <v>188</v>
@@ -8617,12 +8612,12 @@
         <v>188</v>
       </c>
       <c r="F437" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B438">
         <v>187</v>
@@ -8631,12 +8626,12 @@
         <v>187</v>
       </c>
       <c r="F438" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B439">
         <v>185</v>
@@ -8645,12 +8640,12 @@
         <v>185</v>
       </c>
       <c r="F439" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B440">
         <v>186</v>
@@ -8659,12 +8654,12 @@
         <v>186</v>
       </c>
       <c r="F440" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B441">
         <v>182</v>
@@ -8673,12 +8668,12 @@
         <v>182</v>
       </c>
       <c r="F441" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B442">
         <v>184</v>
@@ -8687,12 +8682,12 @@
         <v>184</v>
       </c>
       <c r="F442" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B443">
         <v>183</v>
@@ -8701,12 +8696,12 @@
         <v>183</v>
       </c>
       <c r="F443" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B444">
         <v>179</v>
@@ -8715,12 +8710,12 @@
         <v>179</v>
       </c>
       <c r="F444" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B445">
         <v>181</v>
@@ -8729,12 +8724,12 @@
         <v>181</v>
       </c>
       <c r="F445" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B446">
         <v>180</v>
@@ -8743,12 +8738,12 @@
         <v>180</v>
       </c>
       <c r="F446" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B447">
         <v>178</v>
@@ -8757,12 +8752,12 @@
         <v>178</v>
       </c>
       <c r="F447" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B448">
         <v>176</v>
@@ -8771,12 +8766,12 @@
         <v>176</v>
       </c>
       <c r="F448" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B449">
         <v>177</v>
@@ -8785,12 +8780,12 @@
         <v>177</v>
       </c>
       <c r="F449" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B450">
         <v>168</v>
@@ -8799,12 +8794,12 @@
         <v>168</v>
       </c>
       <c r="F450" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B451">
         <v>170</v>
@@ -8813,12 +8808,12 @@
         <v>170</v>
       </c>
       <c r="F451" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B452">
         <v>166</v>
@@ -8827,12 +8822,12 @@
         <v>166</v>
       </c>
       <c r="F452" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B453">
         <v>167</v>
@@ -8841,12 +8836,12 @@
         <v>167</v>
       </c>
       <c r="F453" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B454">
         <v>169</v>
@@ -8855,12 +8850,12 @@
         <v>169</v>
       </c>
       <c r="F454" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B455">
         <v>175</v>
@@ -8869,12 +8864,12 @@
         <v>175</v>
       </c>
       <c r="F455" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B456">
         <v>174</v>
@@ -8883,12 +8878,12 @@
         <v>174</v>
       </c>
       <c r="F456" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B457">
         <v>191</v>
@@ -8897,12 +8892,12 @@
         <v>191</v>
       </c>
       <c r="F457" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B458">
         <v>193</v>
@@ -8911,12 +8906,12 @@
         <v>193</v>
       </c>
       <c r="F458" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B459">
         <v>192</v>
@@ -8925,12 +8920,12 @@
         <v>192</v>
       </c>
       <c r="F459" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B460">
         <v>172</v>
@@ -8939,12 +8934,12 @@
         <v>172</v>
       </c>
       <c r="F460" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B461">
         <v>171</v>
@@ -8953,12 +8948,12 @@
         <v>171</v>
       </c>
       <c r="F461" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B462">
         <v>173</v>
@@ -8967,7 +8962,7 @@
         <v>173</v>
       </c>
       <c r="F462" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -8982,39 +8977,39 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="46.1259259259259" customWidth="1"/>
-    <col min="2" max="2" width="19.3703703703704" customWidth="1"/>
+    <col min="2" max="2" width="29.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>419</v>
-      </c>
-      <c r="C2" t="s">
-        <v>420</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
